--- a/medicine/Enfance/Frédéric_Vinclère/Frédéric_Vinclère.xlsx
+++ b/medicine/Enfance/Frédéric_Vinclère/Frédéric_Vinclère.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fr%C3%A9d%C3%A9ric_Vincl%C3%A8re</t>
+          <t>Frédéric_Vinclère</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Frédéric Vinclère est un auteur français de littérature jeunesse né en Bretagne en 1982. Il écrit pour l'édition et la presse. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fr%C3%A9d%C3%A9ric_Vincl%C3%A8re</t>
+          <t>Frédéric_Vinclère</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils d'ouvriers, il naît à Vannes en 1982 et suit des études de Lettres à Rennes. Il devient ensuite libraire pendant 13 ans. C'est durant son apprentissage à l'UCO de Laval qu'il rencontre Soazig Le Bail, éditrice aux éditions Thierry Magnier qui l'invite à écrire pour la jeunesse. 
-Il publie son premier roman en 2018. Fête sauvage est un roman sur les querelles familiales et la colère, ainsi qu'un clin d'oeil à l'album Max et les Maximonstres de Maurice Sendak[1], livre qui a bercé son enfance.
-La même année, il remporte la première édition du concours Emergences[2], à l'initiative de la Charte des auteurs et illustrateurs jeunesse, qui permet la découverte de jeunes talents. Ecrivain du réel, il raconte des héros et des histoires qui "font société" selon l'éditrice et journaliste Nathalie Riché sur le blog de l'Express[3]. 
-Plusieurs fois primé, son roman épistolaire Juste un mot est considéré comme "une magnifique correspondance, intimiste et lumineuse"[4]. C'est une adaptation de sa nouvelle L'ogre, lauréate du concours Emergences avec 11 autres textes. Là encore, il y est question de querelles familiales, de la gestion de la colère et de la violence, ainsi que du harcèlement scolaire.
+Il publie son premier roman en 2018. Fête sauvage est un roman sur les querelles familiales et la colère, ainsi qu'un clin d'oeil à l'album Max et les Maximonstres de Maurice Sendak, livre qui a bercé son enfance.
+La même année, il remporte la première édition du concours Emergences, à l'initiative de la Charte des auteurs et illustrateurs jeunesse, qui permet la découverte de jeunes talents. Ecrivain du réel, il raconte des héros et des histoires qui "font société" selon l'éditrice et journaliste Nathalie Riché sur le blog de l'Express. 
+Plusieurs fois primé, son roman épistolaire Juste un mot est considéré comme "une magnifique correspondance, intimiste et lumineuse". C'est une adaptation de sa nouvelle L'ogre, lauréate du concours Emergences avec 11 autres textes. Là encore, il y est question de querelles familiales, de la gestion de la colère et de la violence, ainsi que du harcèlement scolaire.
 Ses autres romans comportent tous une trame en lien avec la structure familiale et les classes sociales. Dans Course-poursuite au Luna Park, son seul roman historique, il insiste notamment sur l'écart entre les riches et les pauvres en traitant du travail des enfants. Le personnage de Fantômouche est inspiré de Fantômas, série de romans parus à l'époque où se déroule l'intrigue. 
-En coopération avec l'association Rue des Livres ou la Ligue de l'Enseignement 35[5], il a animé différents ateliers d'écriture auprès d'élèves allant du cycle 2 à la fin du collège[6],[7],[8].
+En coopération avec l'association Rue des Livres ou la Ligue de l'Enseignement 35, il a animé différents ateliers d'écriture auprès d'élèves allant du cycle 2 à la fin du collège.
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fr%C3%A9d%C3%A9ric_Vincl%C3%A8re</t>
+          <t>Frédéric_Vinclère</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,32 +563,105 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Pour l'édition
-Un max de Max, éditions Le Calicot, 2023  (ISBN 9791097340186)
+          <t>Pour l'édition</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Un max de Max, éditions Le Calicot, 2023  (ISBN 9791097340186)
 A véli-vélo, collection En voiture, Simone, éditions Thierry Magnier, 2023  (ISBN 9791035206178)
 Course-poursuite au Luna Park, collection En voiture, Simone, éditions Thierry Magnier, 2021  (ISBN 9791035204518)
 Les Écorchés, éditions Le Calicot, 2020  (ISBN 9791097340094)
 Juste un mot, éditions Auzou, 2020  (ISBN 9782733881446)
 Nos bombes sont douces, éditions Le Calicot, 2019  (ISBN 9791097340063)
 L'Ogre, nouvelle hors-commerce in Emergences, recueil édité par la Charte des auteurs et illustrateurs jeunesse et traduit en anglais sous le titre Rising Stars ! par Vineet Lal, 2018
-Fête sauvage, collection Petite Poche, éditions Thierry Magnier, 2018  (ISBN 9791035201876)
-Pour la presse
-Pagaille à la boutique, revue J'aime Lire, Bayard Presse, 2023.
+Fête sauvage, collection Petite Poche, éditions Thierry Magnier, 2018  (ISBN 9791035201876)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Frédéric_Vinclère</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fr%C3%A9d%C3%A9ric_Vincl%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Pour la presse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Pagaille à la boutique, revue J'aime Lire, Bayard Presse, 2023.
 Une nuit au sommet, revue J'aime Lire Max, Bayard Presse, 2022.
 La Plage noire, revue J'aime Lire Max, Bayard presse, 2021.
 Mon ami de la nuit, revue Pomme d'Api, Bayard Presse, 2019.
-On a recyclé le chien, revue Pop-Corn, Gallimard Jeunesse, 2019.
-Sélections et prix littéraires
-2020
+On a recyclé le chien, revue Pop-Corn, Gallimard Jeunesse, 2019.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Frédéric_Vinclère</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fr%C3%A9d%C3%A9ric_Vincl%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sélections et prix littéraires</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2020
 Sélection dans le prix des Dévoreurs de livres du département de l'Eure pour Nos bombes sont douces. (Prix non attribué du fait de la pandémie de Covid-19)
 2021
-Lauréat du prix de la Voix des blogs pour Juste un mot[9]
+Lauréat du prix de la Voix des blogs pour Juste un mot
 Sélection dans le prix Danielle Grondein pour Juste un mot.
 2022
-Lauréat du prix Kilalu remis par 6 classes d'Ivry-sur-Seine (Val de Marne) pour Juste un mot[10]
+Lauréat du prix Kilalu remis par 6 classes d'Ivry-sur-Seine (Val de Marne) pour Juste un mot
 Sélection dans le prix Gayant Lecture à Douai (Nord) pour Juste un mot.
-Sélection dans le prix Roman Jeune à Laval (Mayenne) pour Course-poursuite au Luna Park[11]
-Sélection dans le prix Tatoulu, catégorie Noire, à Sarrant (Gers) pour Les écorchés[12]</t>
+Sélection dans le prix Roman Jeune à Laval (Mayenne) pour Course-poursuite au Luna Park
+Sélection dans le prix Tatoulu, catégorie Noire, à Sarrant (Gers) pour Les écorchés</t>
         </is>
       </c>
     </row>
